--- a/會議記錄/API設計.xlsx
+++ b/會議記錄/API設計.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324CC517-84A4-4947-92C0-A49AC33FC751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,34 +46,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/member/signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/signup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id, password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id, sex, name, yyyy, mm, dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>memberToken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id, sex, name, yyyy, mm, dd, managerToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>獲取成員基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,42 +62,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>獲取腦齡數據</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[(imageDate, actualAge, brainAge),...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>獲取失智症風險</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>riskScore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>獲取腦部影像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/data/brainAge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/data/risk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/data/MRI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>axial[.jpg], coronal[.jpg], sagittal[.jpg]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理員註冊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,54 +90,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上傳影像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI計算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/manager/signin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager/signup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/manager/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/data/memberList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>managerToken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id, department, name, numMembers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[(id, sex, name, yyyy, mm, dd),...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/upload/record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imageDate, actualAge, brainAge, riskScore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> NII檔案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/ai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,14 +106,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/signout</t>
+    <t>/manager/Manager_Signup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager/Member_Signup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager/Signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/manager/Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成員拍攝(就診)紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/Signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/MemberList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/RecordsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, sex, name, birthdate, profile_image_path, record_times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, profile_image_path, department, password, name, numMembers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/BrainAge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/Risk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[(imageDate, actualAge, brainAge)...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[(id, sex, name, birthdate, profile_image_path, record_times)...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, sex, name, birthdate, profile_image_path, managerID, managerToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordList[(brain_age, actal_age, date, image_path, riskScore)...]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, profile_image_path, department, name, numMembers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失智症風險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腦部影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腦齡數據</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/upload/Record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上傳拍攝紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageDate, actualAge, brainAge, riskScore, image_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,12 +230,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -237,11 +256,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -521,19 +542,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -551,173 +573,187 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>19</v>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
+      <c r="A10" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
+      <c r="A11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
+      <c r="A12" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
+      <c r="A13" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
+      <c r="A14" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
+      <c r="A15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/會議記錄/API設計.xlsx
+++ b/會議記錄/API設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Simon\C_University\C_ThirdGrade\A_Project\fastapi\github\Product-packaging\會議記錄\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3963A55-A80B-47DA-99B8-9E63B287266C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382C47A5-BA2B-4F58-912E-808C823462BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AD9DAC4-0B5A-4C36-AAC9-D56B16B76BB2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>/manager</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -273,19 +273,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>成員登入</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>獲取成員基本資料</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -460,26 +447,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">/slice/{member_id}/{record_count}/{plane}/{index}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/ai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/Slice/</t>
+      <t>/ai/</t>
     </r>
     <r>
       <rPr>
@@ -489,152 +457,6 @@
         <family val="1"/>
       </rPr>
       <t>{member_id}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{record_count}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{plane}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{index}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/member/profile/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">{member_id}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/member/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>rofile/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{member_id}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/ai/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{member_id}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">/upload/Record
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/ai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/upload/Record</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -785,58 +607,6 @@
     <t>RecordList :
 - brain_age
 - risk_score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>/manager/profile/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">{manager_id}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/manager/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>rofile/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{manager_id}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1189,12 +959,123 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>/ai/slice/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{member_id}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{record_count}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{plane}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{index}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ai/upload/Record</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/member/Profile/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{member_id}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/manager/Profile/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{manager_id}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成員登入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得會員個人照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1250,12 +1131,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="5"/>
@@ -1272,7 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,7 +1166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,16 +1178,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1629,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA490A-7806-4D7B-9416-CE112470565F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1648,7 +1524,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -1673,15 +1549,15 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>62</v>
+      <c r="B3" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
@@ -1699,13 +1575,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1719,10 +1595,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -1737,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -1755,13 +1631,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1769,16 +1645,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
@@ -1795,15 +1671,15 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>46</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
@@ -1814,17 +1690,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
+      <c r="A11" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -1833,16 +1709,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -1851,13 +1727,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -1877,78 +1753,78 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="156" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="156" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>64</v>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
@@ -1965,14 +1841,14 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
+      <c r="A20" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
